--- a/meta/program/BlancoKeyGeneratorKtTableStructure.xlsx
+++ b/meta/program/BlancoKeyGeneratorKtTableStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA52F0F0-BD43-734E-A4F5-34B4214F470D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EDD339-3FC1-0B46-A377-B90FDA1B3C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="760" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="2680" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -534,6 +534,95 @@
     <rPh sb="20" eb="22">
       <t xml:space="preserve">カクノウシマス。 </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>displayName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル表示名を指定します。必須項目です。</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ヒョウジ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>keyIdLength</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キー識別子の桁数を保持します。</t>
+    <rPh sb="6" eb="7">
+      <t>ケｔ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ホジシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>maxKeyLength</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索用キー部の最大桁数を保持します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ケンサクヨウ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ブ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サイダイ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケｔ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ホジシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>recordSequenceLength</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レコード分割番号部の桁数を保持します。</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ブンカツ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ブ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ケタスウ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ホジシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブルのバージョン番号を保持します。</t>
+    <rPh sb="0" eb="3">
+      <t>テーブルノ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ホジシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tableVersion</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1074,35 +1163,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,10 +1603,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1712,24 +1801,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="54"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="56"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="56"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1771,30 +1860,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="50" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1835,18 +1924,18 @@
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A50" si="0">A28+1</f>
+        <f t="shared" ref="A29:A55" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="47" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="F29" s="48"/>
       <c r="G29"/>
@@ -1857,45 +1946,43 @@
         <v>4</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D30" s="40"/>
-      <c r="E30" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="42"/>
+      <c r="E30" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="48"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="26.25" customHeight="1">
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="52"/>
+        <v>32</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="42"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:7" ht="26.25" customHeight="1">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>55</v>
@@ -1903,10 +1990,10 @@
       <c r="D32" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="52"/>
+      <c r="E32" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="54"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
@@ -1915,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>55</v>
@@ -1923,10 +2010,10 @@
       <c r="D33" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="52"/>
+      <c r="E33" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="54"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1935,18 +2022,18 @@
         <v>8</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="52"/>
+        <v>56</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="54"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -1955,18 +2042,18 @@
         <v>9</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="52"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="54"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -1975,18 +2062,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="52"/>
+      <c r="D36" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -1995,18 +2082,18 @@
         <v>11</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>76</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="52"/>
+        <v>44</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -2015,18 +2102,18 @@
         <v>12</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="52"/>
+      <c r="D38" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="54"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -2035,18 +2122,18 @@
         <v>13</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="52"/>
+      <c r="D39" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -2055,78 +2142,78 @@
         <v>14</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="52"/>
+      <c r="D40" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="54"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="52"/>
+        <v>76</v>
+      </c>
+      <c r="D41" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="54"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="45" customHeight="1">
+    <row r="42" spans="1:7" ht="45">
       <c r="A42" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="53"/>
+        <v>87</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="54"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="45">
+    <row r="43" spans="1:7" ht="45" customHeight="1">
       <c r="A43" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="53"/>
+        <v>56</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="55"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="45">
@@ -2135,18 +2222,18 @@
         <v>18</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="53"/>
+        <v>89</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="55"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="45">
@@ -2155,74 +2242,76 @@
         <v>19</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="53"/>
+        <v>94</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="55"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:7" ht="45">
       <c r="A46" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="53"/>
+        <v>90</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="55"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="15">
       <c r="A47" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B47" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" s="52"/>
+      <c r="B47" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="55"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7">
       <c r="A48" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="52"/>
+        <v>70</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="54"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="15">
@@ -2231,61 +2320,183 @@
         <v>23</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D49" s="45"/>
-      <c r="E49" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="52"/>
+      <c r="E49" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="54"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B50" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="45"/>
+      <c r="E50" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="54"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B51" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C51" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D51" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E51" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="52"/>
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="38"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="52"/>
+      <c r="F51" s="54"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="14" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="50"/>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="38">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="40">
+        <v>2</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="48"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="15">
+      <c r="A53" s="38">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="40">
+        <v>900</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="48"/>
       <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="38">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="40">
+        <v>2</v>
+      </c>
+      <c r="E54" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="48"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="38">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="40">
+        <v>2</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="38"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="54"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" ht="14" customHeight="1">
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="G58"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2294,34 +2505,10 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D66" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D71" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoKeyGeneratorKtTableStructure.xlsx
+++ b/meta/program/BlancoKeyGeneratorKtTableStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EDD339-3FC1-0B46-A377-B90FDA1B3C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CBBCC3-37C8-144C-9460-4705B0AFA34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7360" yWindow="2680" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -623,6 +623,26 @@
   </si>
   <si>
     <t>tableVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tableNumber</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バケット内でユニークなテーブル番号を1 - 4095 までの整数で保持します。</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ナイ </t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>テーブルノ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">セイスウ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">ホジシマス。 </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1603,10 +1623,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1924,7 +1944,7 @@
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A55" si="0">A28+1</f>
+        <f t="shared" ref="A29:A56" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -2442,7 +2462,7 @@
         <v>105</v>
       </c>
       <c r="D55" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>111</v>
@@ -2450,37 +2470,57 @@
       <c r="F55" s="48"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="38"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="54"/>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="38">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="40">
+        <v>1</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="48"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="14" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="58"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="38"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="14" customHeight="1">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="58"/>
       <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="G59"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E49:F49"/>
@@ -2508,7 +2548,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D71" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D72" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
